--- a/medicine/Mort/Décès_en_1908/Décès_en_1908.xlsx
+++ b/medicine/Mort/Décès_en_1908/Décès_en_1908.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1908</t>
+          <t>Décès_en_1908</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décès
@@ -507,7 +519,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1908</t>
+          <t>Décès_en_1908</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -527,19 +539,92 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Inconnu
-Giuseppe Castiglione, peintre italien (° 1829).
+          <t>Inconnu</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Giuseppe Castiglione, peintre italien (° 1829).
 Louise Poitevin, aéronaute française (° 1820).
 Charles Porion, peintre français (° 1er mai 1814).
-Leopoldo Toniolo, peintre italien (° 1833).
-Janvier
-3 janvier : Théodore Jourdan, peintre français (° 29 juillet 1833).
+Leopoldo Toniolo, peintre italien (° 1833).</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Décès_en_1908</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1908</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Janvier</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>3 janvier : Théodore Jourdan, peintre français (° 29 juillet 1833).
 9 janvier : Wilhelm Busch, dessinateur britannique (° 15 avril 1832).
 12 janvier : Ernst Hasse, homme politique allemand (° 14 février 1846).
 23 janvier : Edward MacDowell, compositeur, pianiste, chef d'orchestre et pédagogue américain (° 18 décembre 1860).
-28 janvier : François-Marie-Benjamin Richard, cardinal français, archevêque de Paris (° 1er mars 1819).
-Février
-1er février : Charles Ier, roi du Portugal (° 28 septembre 1863).
+28 janvier : François-Marie-Benjamin Richard, cardinal français, archevêque de Paris (° 1er mars 1819).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Décès_en_1908</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1908</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Février</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1er février : Charles Ier, roi du Portugal (° 28 septembre 1863).
 3 février : Ferdinand Meldahl, architecte danois (° 16 mars 1827).
 5 février : Jeanne Alaux, peintre et dessinatrice française (° 17 octobre 1854).
 10 février : Mustafa Kamil, avocat, journaliste et activiste nationaliste égyptien (° 14 août 1874).
@@ -547,23 +632,159 @@
 Ernest Cady, homme politique américain (° 6 septembre 1842).
 Henry Arthur McArdle, peintre américain (° 9 juin 1836).
 17 février : Arthur Le Moyne de La Borderie, historien français (° 5 octobre 1827).
-29 février : John Hope, premier gouverneur général d'Australie (° 25 septembre 1860).
-Mars
-6 mars : Paul Saïn, peintre français (° 5 décembre 1853).
+29 février : John Hope, premier gouverneur général d'Australie (° 25 septembre 1860).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Décès_en_1908</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1908</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>6 mars : Paul Saïn, peintre français (° 5 décembre 1853).
 9 mars : Henry Clifton Sorby, géologue et spécialiste en microscopie britannique (° 10 mai 1826).
 19 mars : Paul Place-Canton, peintre français (° 26 octobre 1862).
 28 mars : Narcisse Salières, peintre et illustrateur français (° 7 octobre 1818).
 31 mars : Francisco Alió, compositeur et pianiste espagnol (° 24 mars 1862).
-? mars : Alfonso Savini, peintre italien (° 1836).
-Avril
-4 avril : Charles Busson, peintre français (° 15 juillet 1822).
-26 avril : Marie-Anne Leroudier, brodeuse française (° 28 novembre 1838).
-Mai
-12 mai : Henri Bouchet-Doumenq, peintre français (° 13 mai 1834).
+? mars : Alfonso Savini, peintre italien (° 1836).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Décès_en_1908</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1908</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Avril</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>4 avril : Charles Busson, peintre français (° 15 juillet 1822).
+26 avril : Marie-Anne Leroudier, brodeuse française (° 28 novembre 1838).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Décès_en_1908</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1908</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>12 mai : Henri Bouchet-Doumenq, peintre français (° 13 mai 1834).
 24 mai : Old Tom Morris, golfeur écossais (° 16 juin 1821).
-27 mai : Alexander Posey, écrivain et homme politique américain (° 3 août 1873).
-Juin
-1er juin : Édouard Moyse, peintre, graveur et illustrateur français (° 27 novembre 1827).
+27 mai : Alexander Posey, écrivain et homme politique américain (° 3 août 1873).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Décès_en_1908</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1908</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Juin</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1er juin : Édouard Moyse, peintre, graveur et illustrateur français (° 27 novembre 1827).
 5 juin :
 Jef Lambeaux, sculpteur belge (° 14 janvier 1852).
 Josef Franz Wagner, compositeur autrichien (° 20 mars 1856).
@@ -574,9 +795,43 @@
 24 juin :
 Grover Cleveland, président des États-Unis (° 18 mars 1837).
 William Whiteway, premier ministre de la colonie de Terre-Neuve (° 1er avril 1828).
-30 juin : Thomas Hill, peintre américain (° 11 septembre 1829).
-Juillet
-5 juillet : Misak Metsarents, poète arménien (° 19 janvier 1886).
+30 juin : Thomas Hill, peintre américain (° 11 septembre 1829).</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Décès_en_1908</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1908</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Juillet</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>5 juillet : Misak Metsarents, poète arménien (° 19 janvier 1886).
 8 juillet : Maria Vlier, enseignante et historienne du Suriname (° 19 mars 1828).
 12 juillet : Matsudaira Sadaaki, daimyo japonais de la période du Bakumatsu, dernier seigneur du domaine de Kuwana (° 18 janvier 1847).
 13 juillet : Henri de Mérode-Westerloo, homme politique (° 28 décembre 1856).
@@ -589,15 +844,83 @@
 Jacques-Eugène Feyen, photographe et peintre français (° 13 novembre 1815).
 Walter Leistikow, peintre allemand (° 25 octobre 1865).
 26 juillet : Charles Morel, peintre, graveur et illustrateur français (° 28 novembre 1860).
-30 juillet : James Budd, avocat et homme politique américain (° 18 mai 1851).
-Août
-6 août : Léon Perrault, peintre français (° 16 juin 1832).
+30 juillet : James Budd, avocat et homme politique américain (° 18 mai 1851).</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Décès_en_1908</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1908</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Août</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>6 août : Léon Perrault, peintre français (° 16 juin 1832).
 19 août : Paul Taconnet, peintre et graveur français (° 13 janvier 1908).
 20 août : Louis Varney, compositeur français (° 30 août 1844).
 23 août : Geórgios Papadiamantópoulos, militaire et homme politique grec (° (1845).
-25 août : Henri Becquerel, physicien français (° 15 décembre 1852).
-Septembre
-4 septembre : Rūdolfs Blaumanis, écrivain, dramaturge et journaliste letton (° 1er janvier 1863).
+25 août : Henri Becquerel, physicien français (° 15 décembre 1852).</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Décès_en_1908</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1908</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Septembre</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>4 septembre : Rūdolfs Blaumanis, écrivain, dramaturge et journaliste letton (° 1er janvier 1863).
 5 septembre : Edwin Mackinnon Liébert, peintre anglo-allemand (° 13 mars 1858).
 6 septembre : Jules Dauban, peintre français (° 31 mai 1822).
 10 septembre : Philippe Jolyet, peintre français (° 11 novembre 1832).
@@ -606,15 +929,83 @@
 29 septembre :
 Albert Maignan, peintre français (° 14 octobre 1845).
 Joaquim Maria Machado de Assis, écrivain brésilien (° 21 juin 1839).
-30 septembre : Marcel Jambon, peintre décorateur français (° 19 octobre 1848).
-Octobre
-11 octobre : Georges Marty, chef d'orchestre et compositeur français (° 16 mai 1860).
+30 septembre : Marcel Jambon, peintre décorateur français (° 19 octobre 1848).</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Décès_en_1908</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1908</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Octobre</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>11 octobre : Georges Marty, chef d'orchestre et compositeur français (° 16 mai 1860).
 13 octobre : Serranito (Hilario González Delgado), matador espagnol (° 21 décembre 1883).
 17 octobre : Léon de Bruyn, homme politique belge (° 7 octobre 1838).
 20 octobre : Friedrich Althoff, homme politique prussien (° 19 février 1839).
-26 octobre : François-Désiré Mathieu, cardinal français, archevêque de Toulouse (° 27 mai 1839).
-Novembre
-1er novembre : Ludwig Carl Christian Koch, médecin et arachnologiste allemand (° 8 novembre 1825).
+26 octobre : François-Désiré Mathieu, cardinal français, archevêque de Toulouse (° 27 mai 1839).</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Décès_en_1908</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1908</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Novembre</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>1er novembre : Ludwig Carl Christian Koch, médecin et arachnologiste allemand (° 8 novembre 1825).
 4 novembre : Tomás Estrada Palma, homme d'État et militaire cubain (° 9 juillet 1832).
 5 novembre :
 Andrew Graham, astronome irlandais (° 8 avril 1815).
@@ -626,9 +1017,43 @@
 16 novembre : Cixi, impératrice chinoise de la dynastie Qing (° 29 novembre 1835).
 20 novembre : Albert Hermann Dietrich, compositeur et chef d'orchestre allemand (° 28 août 1829).
 26 novembre : François-Maurice Lard, peintre et pastelliste français (° 17 décembre 1864).
-27 novembre : Albert Gaudry, géologue et paléontologue français (° 16 septembre 1827).
-Décembre
-13 décembre : Charles Landelle, peintre de genre et portraitiste français (° 2 juin 1821).
+27 novembre : Albert Gaudry, géologue et paléontologue français (° 16 septembre 1827).</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Décès_en_1908</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1908</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Décembre</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>13 décembre : Charles Landelle, peintre de genre et portraitiste français (° 2 juin 1821).
 19 décembre : Victor-Lucien-Sulpice Lecot, cardinal français, archevêque de Bordeaux (° 8 janvier 1831).
 24 décembre : François-Auguste Gevaert, compositeur belge et théoricien de la musique (° 31 juillet 1828).
 27 décembre : Luigi Fontana, sculpteur, peintre et architecte italien (° 9 février 1827).
